--- a/src/Mas/Mas.Web/wwwroot/templates/products.xlsx
+++ b/src/Mas/Mas.Web/wwwroot/templates/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -36,13 +36,19 @@
     <t>Giá bán buôn</t>
   </si>
   <si>
-    <t xml:space="preserve">BÁCH HÓA MINH ANH </t>
-  </si>
-  <si>
-    <t>521/55 Cổ Nhuế 2</t>
-  </si>
-  <si>
     <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>521/55 Cổ Nhuế 2, Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>BÁO CÁO DANH MỤC HÀNG HÓA</t>
+  </si>
+  <si>
+    <t>BÁCH HÓA TỰ CHỌN MINH ANH</t>
+  </si>
+  <si>
+    <t>0989.725.533</t>
   </si>
 </sst>
 </file>
@@ -71,26 +77,32 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,19 +144,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,27 +466,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="68.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -477,56 +495,76 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+    <row r="26" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -539,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -551,7 +589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
